--- a/tables/FEED_criteria.xlsx
+++ b/tables/FEED_criteria.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KAlstad\Documents\Github_C\e-deviceIEP\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E30627C5-1D55-4778-99AE-8D901D7A0638}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67373BA4-56B6-49F4-BF33-1957106B72D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-6750" yWindow="-13380" windowWidth="21600" windowHeight="11385" firstSheet="1" activeTab="5" xr2:uid="{E4A5BE10-DBB8-481B-874B-1BDF43DE8625}"/>
   </bookViews>
